--- a/src/main/resources/templates/xlsx/전체결과.xlsx
+++ b/src/main/resources/templates/xlsx/전체결과.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeon-yujin/Documents/workspace/backend/springboot/maru/src/main/resources/templates/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7544FFF-90E9-5D43-8824-E60AFB6109A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FEE670-9F86-0149-AC72-80C76905DE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{7690012B-BFFA-3C48-824D-509550F219F4}"/>
+    <workbookView xWindow="15240" yWindow="740" windowWidth="15000" windowHeight="18900" xr2:uid="{7690012B-BFFA-3C48-824D-509550F219F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>수험번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>3학년 1학기 총점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년월일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -245,22 +249,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,12 +272,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -613,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8EB960-16E4-4546-BE22-CABF45F1D2EB}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -627,17 +616,17 @@
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="20.28515625" customWidth="1"/>
-    <col min="15" max="16" width="20.140625" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="18" width="20.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" customWidth="1"/>
+    <col min="21" max="26" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" customHeight="1">
+    <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -658,25 +647,26 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="4"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:25" ht="30" customHeight="1">
+    <row r="2" spans="1:26" ht="30" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
@@ -693,68 +683,71 @@
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:Z1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
